--- a/biology/Zoologie/Gerrhopilidae/Gerrhopilidae.xlsx
+++ b/biology/Zoologie/Gerrhopilidae/Gerrhopilidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gerrhopilidae sont une famille de serpents. 
 </t>
@@ -511,7 +523,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille a été créée en 2010 par Nicolas Vidal (d), Addison H. Wynn (d), Stephen Charles Donnellan (d) et Stephen Blair Hedges.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces des deux genres de cette famille se rencontrent en Asie du Sud, en Asie du Sud-Est et en Mélanésie.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (31 août 2014)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (31 août 2014) :
 Cathetorhinus Duméril &amp; Bibron, 1844
 Gerrhopilus Fitzinger, 1843</t>
         </is>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Nicolas Vidal, Julie Marin, Marina Morini, Steve Donnellan, William R. Branch, Richard Thomas, Miguel Vences, Addison Wynn, Corinne Cruaud et S. Blair Hedges, « Blindsnake evolutionary tree reveals long history on Gondwana », Biology Letters, Royal Society, vol. 6, no 4,‎ 23 août 2010, p. 558-61 (ISSN 1744-9561 et 1744-957X, OCLC 474499746, PMID 20356885, PMCID 2936224, DOI 10.1098/RSBL.2010.0220, lire en ligne)</t>
         </is>
